--- a/Additional_supplementary_tables/Additional supplementary table 2.xlsx
+++ b/Additional_supplementary_tables/Additional supplementary table 2.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LocalAdmin\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LocalAdmin\Documents\GitHub\Bacterial_homologs_of_innate_eukaryotic_antiviral_defenses\Additional_supplementary_tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B08657BA-FC5E-4A4A-B7A8-9D8944CF4F06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26B79FAC-4DCB-47F0-B8D9-8D7338EEA20A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{80ECF61B-1C77-49A0-A617-D0ECEEB9F40E}"/>
   </bookViews>
@@ -299,9 +299,6 @@
     <t>Thoeris Type I</t>
   </si>
   <si>
-    <t>Pan</t>
-  </si>
-  <si>
     <t>PD-T7-1</t>
   </si>
   <si>
@@ -318,9 +315,6 @@
   </si>
   <si>
     <t>CBASS Type IV</t>
-  </si>
-  <si>
-    <t>Nyx</t>
   </si>
   <si>
     <t>Retron II-A</t>
@@ -513,6 +507,12 @@
   </si>
   <si>
     <t>Thoeris III</t>
+  </si>
+  <si>
+    <t>Erebus</t>
+  </si>
+  <si>
+    <t>Hermes</t>
   </si>
 </sst>
 </file>
@@ -1068,8 +1068,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF4AA420-F170-42B0-9AD9-83B621AFDAD2}">
   <dimension ref="A1:D998"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O24" sqref="O24"/>
+    <sheetView tabSelected="1" topLeftCell="A66" workbookViewId="0">
+      <selection activeCell="A87" sqref="A87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1082,7 +1082,7 @@
   <sheetData>
     <row r="1" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -2266,7 +2266,7 @@
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="9" t="s">
-        <v>87</v>
+        <v>148</v>
       </c>
       <c r="B86" s="10">
         <v>9</v>
@@ -2280,7 +2280,7 @@
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B87" s="7">
         <v>9</v>
@@ -2294,7 +2294,7 @@
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B88" s="7">
         <v>9</v>
@@ -2308,7 +2308,7 @@
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B89" s="7">
         <v>9</v>
@@ -2322,7 +2322,7 @@
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B90" s="7">
         <v>10</v>
@@ -2336,7 +2336,7 @@
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B91" s="7">
         <v>8</v>
@@ -2350,7 +2350,7 @@
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B92" s="7">
         <v>8</v>
@@ -2364,7 +2364,7 @@
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="9" t="s">
-        <v>94</v>
+        <v>147</v>
       </c>
       <c r="B93" s="10">
         <v>7</v>
@@ -2378,7 +2378,7 @@
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="6" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B94" s="7">
         <v>7</v>
@@ -2392,7 +2392,7 @@
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="6" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B95" s="7">
         <v>7</v>
@@ -2406,7 +2406,7 @@
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="6" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B96" s="7">
         <v>7</v>
@@ -2420,7 +2420,7 @@
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" s="6" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B97" s="7">
         <v>7</v>
@@ -2434,7 +2434,7 @@
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" s="6" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B98" s="7">
         <v>8</v>
@@ -2448,7 +2448,7 @@
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" s="6" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B99" s="7">
         <v>6</v>
@@ -2462,7 +2462,7 @@
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="6" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B100" s="7">
         <v>6</v>
@@ -2476,7 +2476,7 @@
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" s="6" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B101" s="7">
         <v>6</v>
@@ -2490,7 +2490,7 @@
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" s="6" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B102" s="7">
         <v>6</v>
@@ -2504,7 +2504,7 @@
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" s="6" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B103" s="7">
         <v>6</v>
@@ -2518,7 +2518,7 @@
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" s="6" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B104" s="7">
         <v>6</v>
@@ -2532,7 +2532,7 @@
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" s="16" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B105" s="17">
         <v>5</v>
@@ -2546,7 +2546,7 @@
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" s="6" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B106" s="7">
         <v>5</v>
@@ -2560,7 +2560,7 @@
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" s="6" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B107" s="7">
         <v>5</v>
@@ -2574,7 +2574,7 @@
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" s="6" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B108" s="7">
         <v>5</v>
@@ -2588,7 +2588,7 @@
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" s="6" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B109" s="7">
         <v>5</v>
@@ -2602,7 +2602,7 @@
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" s="6" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B110" s="7">
         <v>5</v>
@@ -2616,7 +2616,7 @@
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" s="6" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B111" s="7">
         <v>5</v>
@@ -2630,7 +2630,7 @@
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" s="6" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B112" s="7">
         <v>5</v>
@@ -2644,7 +2644,7 @@
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" s="6" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B113" s="7">
         <v>5</v>
@@ -2658,7 +2658,7 @@
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" s="6" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B114" s="7">
         <v>4</v>
@@ -2672,7 +2672,7 @@
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" s="6" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B115" s="7">
         <v>4</v>
@@ -2686,7 +2686,7 @@
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" s="6" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B116" s="7">
         <v>4</v>
@@ -2700,7 +2700,7 @@
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" s="6" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B117" s="7">
         <v>4</v>
@@ -2714,7 +2714,7 @@
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" s="6" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B118" s="7">
         <v>4</v>
@@ -2728,7 +2728,7 @@
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" s="6" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B119" s="7">
         <v>3</v>
@@ -2742,7 +2742,7 @@
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" s="6" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B120" s="7">
         <v>3</v>
@@ -2756,7 +2756,7 @@
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" s="6" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B121" s="7">
         <v>3</v>
@@ -2770,7 +2770,7 @@
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" s="6" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B122" s="7">
         <v>3</v>
@@ -2784,7 +2784,7 @@
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" s="6" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B123" s="7">
         <v>3</v>
@@ -2798,7 +2798,7 @@
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124" s="6" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B124" s="7">
         <v>3</v>
@@ -2812,7 +2812,7 @@
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125" s="6" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B125" s="7">
         <v>3</v>
@@ -2826,7 +2826,7 @@
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126" s="6" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B126" s="7">
         <v>3</v>
@@ -2840,7 +2840,7 @@
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127" s="6" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B127" s="7">
         <v>4</v>
@@ -2854,7 +2854,7 @@
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128" s="6" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B128" s="7">
         <v>3</v>
@@ -2868,7 +2868,7 @@
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129" s="6" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B129" s="7">
         <v>3</v>
@@ -2882,7 +2882,7 @@
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130" s="6" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B130" s="7">
         <v>4</v>
@@ -2896,7 +2896,7 @@
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131" s="6" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B131" s="7">
         <v>2</v>
@@ -2910,7 +2910,7 @@
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132" s="6" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B132" s="7">
         <v>2</v>
@@ -2924,7 +2924,7 @@
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133" s="6" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B133" s="7">
         <v>2</v>
@@ -2938,7 +2938,7 @@
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134" s="6" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B134" s="7">
         <v>2</v>
@@ -2952,7 +2952,7 @@
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135" s="6" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B135" s="7">
         <v>2</v>
@@ -2966,7 +2966,7 @@
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136" s="6" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B136" s="7">
         <v>2</v>
@@ -2980,7 +2980,7 @@
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137" s="6" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B137" s="7">
         <v>1</v>
@@ -2994,7 +2994,7 @@
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138" s="6" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B138" s="7">
         <v>1</v>
@@ -3008,7 +3008,7 @@
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139" s="6" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B139" s="7">
         <v>1</v>
@@ -3022,7 +3022,7 @@
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140" s="6" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B140" s="7">
         <v>1</v>
@@ -3036,7 +3036,7 @@
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A141" s="6" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B141" s="7">
         <v>1</v>
@@ -3050,7 +3050,7 @@
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142" s="6" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B142" s="7">
         <v>1</v>
@@ -3064,7 +3064,7 @@
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A143" s="6" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B143" s="7">
         <v>1</v>
@@ -3078,7 +3078,7 @@
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A144" s="6" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B144" s="7">
         <v>1</v>
@@ -3092,7 +3092,7 @@
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A145" s="6" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B145" s="7">
         <v>1</v>
@@ -3106,7 +3106,7 @@
     </row>
     <row r="146" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A146" s="11" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B146" s="12">
         <v>1</v>
